--- a/data/data_digitization/occurrence_data/1_raw_data/[collector_initials]-[journal_number]-occ-entry template.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/[collector_initials]-[journal_number]-occ-entry template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECAFE2C-7521-AF43-891F-293BE98514D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B58BA-59D4-4B48-BE9C-15F75C3A6D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15440" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1348,48 +1348,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{9343A800-EEC2-EC49-8393-4E7D244644B5}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">associated collected taxa names (if available) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Definition: </t>
         </r>
@@ -1397,40 +1406,151 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Isoetes echinospora</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>associated collected taxa (names of associated species), growing at same locality at</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">same time
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• ONLY denote associated taxa names in this field, if there is a record of a specimen collection (either a collection number or a note about “coll” next to a species name)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>• e.g. in</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> the same block of collections as "</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Stellaria media 2678" –&gt; “Stellaria media”
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• use updated and full names of these taxa (refer to 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• use iNaturalist to decipher names/ abbreviations of associated taxa and for updated names
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• if you can’t decipher a name, place the estimated name in [brackets] and make a note in the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">“dataEntryRemarks” column (e.g. cannot decipher one or more associated species names”
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• enter multiple names separated by commas
+</t>
         </r>
       </text>
     </comment>
@@ -1595,7 +1715,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vTaxonRank (REQUIRED)
+          <t xml:space="preserve">vTaxonRank (only required if species only ID'd to family level or higher)
 </t>
         </r>
         <r>
@@ -1634,40 +1754,44 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">The most specific level of taxonomy provided verbatim. Only
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">use if the verbatim taxon name is a family name or higher. If genus, species or subspecies, then this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">information will be filled in later automatically
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• e.g. if “Brassicaceae” –&gt; put “family”
 </t>
         </r>
         <r>
@@ -2577,7 +2701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2664,6 +2788,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3071,10 +3203,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D276" sqref="D276"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3097,7 +3229,7 @@
     <col min="16" max="16" width="29.5" style="3" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" style="3" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="3" customWidth="1"/>
     <col min="20" max="20" width="8.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="9.1640625" style="3" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" style="3" customWidth="1"/>
